--- a/public/assets/uploads/document/template/template_simpanan.xlsx
+++ b/public/assets/uploads/document/template/template_simpanan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kopma 2022\Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ervan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B61E15-1CA7-44EB-AAC8-B573317890C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10373122-3C8E-4C89-A2B2-2DFD8CC539A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{B6D995A8-D276-42DF-8C1B-81E60700DF02}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nama</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>2084/Kopma_UL/21</t>
+  </si>
+  <si>
+    <t>Tagihan</t>
   </si>
 </sst>
 </file>
@@ -397,15 +400,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E535DB02-C59C-4E88-89C0-81A5F6FBDADC}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,8 +427,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -432,8 +444,11 @@
       <c r="D2">
         <v>40000</v>
       </c>
+      <c r="E2">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -442,6 +457,9 @@
       </c>
       <c r="D3">
         <v>30000</v>
+      </c>
+      <c r="E3">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
